--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Alcam-Chl1.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Alcam-Chl1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,55 +531,55 @@
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.443800338182</v>
+        <v>1.462812</v>
       </c>
       <c r="H2">
-        <v>0.443800338182</v>
+        <v>4.388436</v>
       </c>
       <c r="I2">
-        <v>0.005661647499183632</v>
+        <v>0.01745990761220821</v>
       </c>
       <c r="J2">
-        <v>0.005661647499183632</v>
+        <v>0.01745990761220821</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>6.4872376055594</v>
+        <v>0.338517</v>
       </c>
       <c r="N2">
-        <v>6.4872376055594</v>
+        <v>1.015551</v>
       </c>
       <c r="O2">
-        <v>0.906320442244955</v>
+        <v>0.03643205886005778</v>
       </c>
       <c r="P2">
-        <v>0.906320442244955</v>
+        <v>0.03643205886005777</v>
       </c>
       <c r="Q2">
-        <v>2.87903824321425</v>
+        <v>0.495186729804</v>
       </c>
       <c r="R2">
-        <v>2.87903824321425</v>
+        <v>4.456680568236</v>
       </c>
       <c r="S2">
-        <v>0.005131266865295152</v>
+        <v>0.0006361003818191403</v>
       </c>
       <c r="T2">
-        <v>0.005131266865295152</v>
+        <v>0.0006361003818191403</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,60 +593,60 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.443800338182</v>
+        <v>1.462812</v>
       </c>
       <c r="H3">
-        <v>0.443800338182</v>
+        <v>4.388436</v>
       </c>
       <c r="I3">
-        <v>0.005661647499183632</v>
+        <v>0.01745990761220821</v>
       </c>
       <c r="J3">
-        <v>0.005661647499183632</v>
+        <v>0.01745990761220821</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.670537176051525</v>
+        <v>8.085662666666666</v>
       </c>
       <c r="N3">
-        <v>0.670537176051525</v>
+        <v>24.256988</v>
       </c>
       <c r="O3">
-        <v>0.09367955775504495</v>
+        <v>0.8701995415136364</v>
       </c>
       <c r="P3">
-        <v>0.09367955775504495</v>
+        <v>0.8701995415136364</v>
       </c>
       <c r="Q3">
-        <v>0.29758462549527</v>
+        <v>11.827804376752</v>
       </c>
       <c r="R3">
-        <v>0.29758462549527</v>
+        <v>106.450239390768</v>
       </c>
       <c r="S3">
-        <v>0.0005303806338884788</v>
+        <v>0.01519360359901403</v>
       </c>
       <c r="T3">
-        <v>0.0005303806338884788</v>
+        <v>0.01519360359901404</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
@@ -655,60 +655,60 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.58953177156822</v>
+        <v>1.462812</v>
       </c>
       <c r="H4">
-        <v>1.58953177156822</v>
+        <v>4.388436</v>
       </c>
       <c r="I4">
-        <v>0.02027796692593224</v>
+        <v>0.01745990761220821</v>
       </c>
       <c r="J4">
-        <v>0.02027796692593224</v>
+        <v>0.01745990761220821</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>6.4872376055594</v>
+        <v>0.002599666666666667</v>
       </c>
       <c r="N4">
-        <v>6.4872376055594</v>
+        <v>0.007799</v>
       </c>
       <c r="O4">
-        <v>0.906320442244955</v>
+        <v>0.0002797827258794394</v>
       </c>
       <c r="P4">
-        <v>0.906320442244955</v>
+        <v>0.0002797827258794394</v>
       </c>
       <c r="Q4">
-        <v>10.31167028374881</v>
+        <v>0.003802823596</v>
       </c>
       <c r="R4">
-        <v>10.31167028374881</v>
+        <v>0.034225412364</v>
       </c>
       <c r="S4">
-        <v>0.01837833595213948</v>
+        <v>4.884980545346787E-06</v>
       </c>
       <c r="T4">
-        <v>0.01837833595213948</v>
+        <v>4.884980545346788E-06</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -720,57 +720,57 @@
         <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.58953177156822</v>
+        <v>1.462812</v>
       </c>
       <c r="H5">
-        <v>1.58953177156822</v>
+        <v>4.388436</v>
       </c>
       <c r="I5">
-        <v>0.02027796692593224</v>
+        <v>0.01745990761220821</v>
       </c>
       <c r="J5">
-        <v>0.02027796692593224</v>
+        <v>0.01745990761220821</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.670537176051525</v>
+        <v>0.8649546666666666</v>
       </c>
       <c r="N5">
-        <v>0.670537176051525</v>
+        <v>2.594864</v>
       </c>
       <c r="O5">
-        <v>0.09367955775504495</v>
+        <v>0.09308861690042643</v>
       </c>
       <c r="P5">
-        <v>0.09367955775504495</v>
+        <v>0.09308861690042641</v>
       </c>
       <c r="Q5">
-        <v>1.065840145351532</v>
+        <v>1.265266065856</v>
       </c>
       <c r="R5">
-        <v>1.065840145351532</v>
+        <v>11.387394592704</v>
       </c>
       <c r="S5">
-        <v>0.001899630973792761</v>
+        <v>0.001625318650829689</v>
       </c>
       <c r="T5">
-        <v>0.001899630973792761</v>
+        <v>0.001625318650829689</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,60 +779,60 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>41.3080121071907</v>
+        <v>1.641258</v>
       </c>
       <c r="H6">
-        <v>41.3080121071907</v>
+        <v>4.923774</v>
       </c>
       <c r="I6">
-        <v>0.5269743696026975</v>
+        <v>0.01958981266751819</v>
       </c>
       <c r="J6">
-        <v>0.5269743696026975</v>
+        <v>0.0195898126675182</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>6.4872376055594</v>
+        <v>0.338517</v>
       </c>
       <c r="N6">
-        <v>6.4872376055594</v>
+        <v>1.015551</v>
       </c>
       <c r="O6">
-        <v>0.906320442244955</v>
+        <v>0.03643205886005778</v>
       </c>
       <c r="P6">
-        <v>0.906320442244955</v>
+        <v>0.03643205886005777</v>
       </c>
       <c r="Q6">
-        <v>267.9748895526705</v>
+        <v>0.555593734386</v>
       </c>
       <c r="R6">
-        <v>267.9748895526705</v>
+        <v>5.000343609474</v>
       </c>
       <c r="S6">
-        <v>0.4776076437100732</v>
+        <v>0.0007136972081605282</v>
       </c>
       <c r="T6">
-        <v>0.4776076437100732</v>
+        <v>0.0007136972081605282</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>25</v>
@@ -841,60 +841,60 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>41.3080121071907</v>
+        <v>1.641258</v>
       </c>
       <c r="H7">
-        <v>41.3080121071907</v>
+        <v>4.923774</v>
       </c>
       <c r="I7">
-        <v>0.5269743696026975</v>
+        <v>0.01958981266751819</v>
       </c>
       <c r="J7">
-        <v>0.5269743696026975</v>
+        <v>0.0195898126675182</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.670537176051525</v>
+        <v>8.085662666666666</v>
       </c>
       <c r="N7">
-        <v>0.670537176051525</v>
+        <v>24.256988</v>
       </c>
       <c r="O7">
-        <v>0.09367955775504495</v>
+        <v>0.8701995415136364</v>
       </c>
       <c r="P7">
-        <v>0.09367955775504495</v>
+        <v>0.8701995415136364</v>
       </c>
       <c r="Q7">
-        <v>27.69855778665785</v>
+        <v>13.270658536968</v>
       </c>
       <c r="R7">
-        <v>27.69855778665785</v>
+        <v>119.435926832712</v>
       </c>
       <c r="S7">
-        <v>0.04936672589262431</v>
+        <v>0.01704704600161236</v>
       </c>
       <c r="T7">
-        <v>0.04936672589262431</v>
+        <v>0.01704704600161236</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -903,60 +903,60 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>34.4900810504661</v>
+        <v>1.641258</v>
       </c>
       <c r="H8">
-        <v>34.4900810504661</v>
+        <v>4.923774</v>
       </c>
       <c r="I8">
-        <v>0.4399966929406277</v>
+        <v>0.01958981266751819</v>
       </c>
       <c r="J8">
-        <v>0.4399966929406277</v>
+        <v>0.0195898126675182</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>6.4872376055594</v>
+        <v>0.002599666666666667</v>
       </c>
       <c r="N8">
-        <v>6.4872376055594</v>
+        <v>0.007799</v>
       </c>
       <c r="O8">
-        <v>0.906320442244955</v>
+        <v>0.0002797827258794394</v>
       </c>
       <c r="P8">
-        <v>0.906320442244955</v>
+        <v>0.0002797827258794394</v>
       </c>
       <c r="Q8">
-        <v>223.7453508093754</v>
+        <v>0.004266723714</v>
       </c>
       <c r="R8">
-        <v>223.7453508093754</v>
+        <v>0.038400513426</v>
       </c>
       <c r="S8">
-        <v>0.3987779973322673</v>
+        <v>5.480891187585812E-06</v>
       </c>
       <c r="T8">
-        <v>0.3987779973322673</v>
+        <v>5.480891187585813E-06</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -968,57 +968,57 @@
         <v>24</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>34.4900810504661</v>
+        <v>1.641258</v>
       </c>
       <c r="H9">
-        <v>34.4900810504661</v>
+        <v>4.923774</v>
       </c>
       <c r="I9">
-        <v>0.4399966929406277</v>
+        <v>0.01958981266751819</v>
       </c>
       <c r="J9">
-        <v>0.4399966929406277</v>
+        <v>0.0195898126675182</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.670537176051525</v>
+        <v>0.8649546666666666</v>
       </c>
       <c r="N9">
-        <v>0.670537176051525</v>
+        <v>2.594864</v>
       </c>
       <c r="O9">
-        <v>0.09367955775504495</v>
+        <v>0.09308861690042643</v>
       </c>
       <c r="P9">
-        <v>0.09367955775504495</v>
+        <v>0.09308861690042641</v>
       </c>
       <c r="Q9">
-        <v>23.12688154936775</v>
+        <v>1.419613766304</v>
       </c>
       <c r="R9">
-        <v>23.12688154936775</v>
+        <v>12.776523896736</v>
       </c>
       <c r="S9">
-        <v>0.04121869560836031</v>
+        <v>0.001823588566557722</v>
       </c>
       <c r="T9">
-        <v>0.04121869560836031</v>
+        <v>0.001823588566557722</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,117 +1027,737 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.555711735734343</v>
+        <v>41.66413499999999</v>
       </c>
       <c r="H10">
-        <v>0.555711735734343</v>
+        <v>124.992405</v>
       </c>
       <c r="I10">
-        <v>0.007089323031559028</v>
+        <v>0.4972969512436119</v>
       </c>
       <c r="J10">
-        <v>0.007089323031559028</v>
+        <v>0.497296951243612</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>6.4872376055594</v>
+        <v>0.338517</v>
       </c>
       <c r="N10">
-        <v>6.4872376055594</v>
+        <v>1.015551</v>
       </c>
       <c r="O10">
-        <v>0.906320442244955</v>
+        <v>0.03643205886005778</v>
       </c>
       <c r="P10">
-        <v>0.906320442244955</v>
+        <v>0.03643205886005777</v>
       </c>
       <c r="Q10">
-        <v>3.605034069906517</v>
+        <v>14.104017987795</v>
       </c>
       <c r="R10">
-        <v>3.605034069906517</v>
+        <v>126.936161890155</v>
       </c>
       <c r="S10">
-        <v>0.006425198385179924</v>
+        <v>0.01811755179863455</v>
       </c>
       <c r="T10">
-        <v>0.006425198385179924</v>
+        <v>0.01811755179863455</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>41.66413499999999</v>
+      </c>
+      <c r="H11">
+        <v>124.992405</v>
+      </c>
+      <c r="I11">
+        <v>0.4972969512436119</v>
+      </c>
+      <c r="J11">
+        <v>0.497296951243612</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>8.085662666666666</v>
+      </c>
+      <c r="N11">
+        <v>24.256988</v>
+      </c>
+      <c r="O11">
+        <v>0.8701995415136364</v>
+      </c>
+      <c r="P11">
+        <v>0.8701995415136364</v>
+      </c>
+      <c r="Q11">
+        <v>336.8821409084599</v>
+      </c>
+      <c r="R11">
+        <v>3031.93926817614</v>
+      </c>
+      <c r="S11">
+        <v>0.4327475789683203</v>
+      </c>
+      <c r="T11">
+        <v>0.4327475789683204</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>41.66413499999999</v>
+      </c>
+      <c r="H12">
+        <v>124.992405</v>
+      </c>
+      <c r="I12">
+        <v>0.4972969512436119</v>
+      </c>
+      <c r="J12">
+        <v>0.497296951243612</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.002599666666666667</v>
+      </c>
+      <c r="N12">
+        <v>0.007799</v>
+      </c>
+      <c r="O12">
+        <v>0.0002797827258794394</v>
+      </c>
+      <c r="P12">
+        <v>0.0002797827258794394</v>
+      </c>
+      <c r="Q12">
+        <v>0.108312862955</v>
+      </c>
+      <c r="R12">
+        <v>0.974815766595</v>
+      </c>
+      <c r="S12">
+        <v>0.0001391350965904724</v>
+      </c>
+      <c r="T12">
+        <v>0.0001391350965904724</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="B11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>41.66413499999999</v>
+      </c>
+      <c r="H13">
+        <v>124.992405</v>
+      </c>
+      <c r="I13">
+        <v>0.4972969512436119</v>
+      </c>
+      <c r="J13">
+        <v>0.497296951243612</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.8649546666666666</v>
+      </c>
+      <c r="N13">
+        <v>2.594864</v>
+      </c>
+      <c r="O13">
+        <v>0.09308861690042643</v>
+      </c>
+      <c r="P13">
+        <v>0.09308861690042641</v>
+      </c>
+      <c r="Q13">
+        <v>36.03758800087999</v>
+      </c>
+      <c r="R13">
+        <v>324.33829200792</v>
+      </c>
+      <c r="S13">
+        <v>0.04629268538006662</v>
+      </c>
+      <c r="T13">
+        <v>0.04629268538006663</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>38.41537433333333</v>
+      </c>
+      <c r="H14">
+        <v>115.246123</v>
+      </c>
+      <c r="I14">
+        <v>0.4585202245732155</v>
+      </c>
+      <c r="J14">
+        <v>0.4585202245732156</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.338517</v>
+      </c>
+      <c r="N14">
+        <v>1.015551</v>
+      </c>
+      <c r="O14">
+        <v>0.03643205886005778</v>
+      </c>
+      <c r="P14">
+        <v>0.03643205886005777</v>
+      </c>
+      <c r="Q14">
+        <v>13.004257273197</v>
+      </c>
+      <c r="R14">
+        <v>117.038315458773</v>
+      </c>
+      <c r="S14">
+        <v>0.0167048358101783</v>
+      </c>
+      <c r="T14">
+        <v>0.0167048358101783</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>38.41537433333333</v>
+      </c>
+      <c r="H15">
+        <v>115.246123</v>
+      </c>
+      <c r="I15">
+        <v>0.4585202245732155</v>
+      </c>
+      <c r="J15">
+        <v>0.4585202245732156</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>8.085662666666666</v>
+      </c>
+      <c r="N15">
+        <v>24.256988</v>
+      </c>
+      <c r="O15">
+        <v>0.8701995415136364</v>
+      </c>
+      <c r="P15">
+        <v>0.8701995415136364</v>
+      </c>
+      <c r="Q15">
+        <v>310.6137580730582</v>
+      </c>
+      <c r="R15">
+        <v>2795.523822657524</v>
+      </c>
+      <c r="S15">
+        <v>0.3990040891983417</v>
+      </c>
+      <c r="T15">
+        <v>0.3990040891983418</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>38.41537433333333</v>
+      </c>
+      <c r="H16">
+        <v>115.246123</v>
+      </c>
+      <c r="I16">
+        <v>0.4585202245732155</v>
+      </c>
+      <c r="J16">
+        <v>0.4585202245732156</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.002599666666666667</v>
+      </c>
+      <c r="N16">
+        <v>0.007799</v>
+      </c>
+      <c r="O16">
+        <v>0.0002797827258794394</v>
+      </c>
+      <c r="P16">
+        <v>0.0002797827258794394</v>
+      </c>
+      <c r="Q16">
+        <v>0.0998671681418889</v>
+      </c>
+      <c r="R16">
+        <v>0.8988045132770001</v>
+      </c>
+      <c r="S16">
+        <v>0.000128286038301947</v>
+      </c>
+      <c r="T16">
+        <v>0.000128286038301947</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
         <v>24</v>
       </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>0.555711735734343</v>
-      </c>
-      <c r="H11">
-        <v>0.555711735734343</v>
-      </c>
-      <c r="I11">
-        <v>0.007089323031559028</v>
-      </c>
-      <c r="J11">
-        <v>0.007089323031559028</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>0.670537176051525</v>
-      </c>
-      <c r="N11">
-        <v>0.670537176051525</v>
-      </c>
-      <c r="O11">
-        <v>0.09367955775504495</v>
-      </c>
-      <c r="P11">
-        <v>0.09367955775504495</v>
-      </c>
-      <c r="Q11">
-        <v>0.3726253779779977</v>
-      </c>
-      <c r="R11">
-        <v>0.3726253779779977</v>
-      </c>
-      <c r="S11">
-        <v>0.0006641246463791043</v>
-      </c>
-      <c r="T11">
-        <v>0.0006641246463791043</v>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>38.41537433333333</v>
+      </c>
+      <c r="H17">
+        <v>115.246123</v>
+      </c>
+      <c r="I17">
+        <v>0.4585202245732155</v>
+      </c>
+      <c r="J17">
+        <v>0.4585202245732156</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.8649546666666666</v>
+      </c>
+      <c r="N17">
+        <v>2.594864</v>
+      </c>
+      <c r="O17">
+        <v>0.09308861690042643</v>
+      </c>
+      <c r="P17">
+        <v>0.09308861690042641</v>
+      </c>
+      <c r="Q17">
+        <v>33.22755730136355</v>
+      </c>
+      <c r="R17">
+        <v>299.048015712272</v>
+      </c>
+      <c r="S17">
+        <v>0.04268301352639355</v>
+      </c>
+      <c r="T17">
+        <v>0.04268301352639355</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.59762</v>
+      </c>
+      <c r="H18">
+        <v>1.79286</v>
+      </c>
+      <c r="I18">
+        <v>0.00713310390344615</v>
+      </c>
+      <c r="J18">
+        <v>0.007133103903446152</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M18">
+        <v>0.338517</v>
+      </c>
+      <c r="N18">
+        <v>1.015551</v>
+      </c>
+      <c r="O18">
+        <v>0.03643205886005778</v>
+      </c>
+      <c r="P18">
+        <v>0.03643205886005777</v>
+      </c>
+      <c r="Q18">
+        <v>0.20230452954</v>
+      </c>
+      <c r="R18">
+        <v>1.82074076586</v>
+      </c>
+      <c r="S18">
+        <v>0.000259873661265258</v>
+      </c>
+      <c r="T18">
+        <v>0.0002598736612652581</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.59762</v>
+      </c>
+      <c r="H19">
+        <v>1.79286</v>
+      </c>
+      <c r="I19">
+        <v>0.00713310390344615</v>
+      </c>
+      <c r="J19">
+        <v>0.007133103903446152</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>8.085662666666666</v>
+      </c>
+      <c r="N19">
+        <v>24.256988</v>
+      </c>
+      <c r="O19">
+        <v>0.8701995415136364</v>
+      </c>
+      <c r="P19">
+        <v>0.8701995415136364</v>
+      </c>
+      <c r="Q19">
+        <v>4.832153722853334</v>
+      </c>
+      <c r="R19">
+        <v>43.48938350568</v>
+      </c>
+      <c r="S19">
+        <v>0.006207223746347971</v>
+      </c>
+      <c r="T19">
+        <v>0.006207223746347972</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.59762</v>
+      </c>
+      <c r="H20">
+        <v>1.79286</v>
+      </c>
+      <c r="I20">
+        <v>0.00713310390344615</v>
+      </c>
+      <c r="J20">
+        <v>0.007133103903446152</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M20">
+        <v>0.002599666666666667</v>
+      </c>
+      <c r="N20">
+        <v>0.007799</v>
+      </c>
+      <c r="O20">
+        <v>0.0002797827258794394</v>
+      </c>
+      <c r="P20">
+        <v>0.0002797827258794394</v>
+      </c>
+      <c r="Q20">
+        <v>0.001553612793333333</v>
+      </c>
+      <c r="R20">
+        <v>0.01398251514</v>
+      </c>
+      <c r="S20">
+        <v>1.995719254087434E-06</v>
+      </c>
+      <c r="T20">
+        <v>1.995719254087434E-06</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.59762</v>
+      </c>
+      <c r="H21">
+        <v>1.79286</v>
+      </c>
+      <c r="I21">
+        <v>0.00713310390344615</v>
+      </c>
+      <c r="J21">
+        <v>0.007133103903446152</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.8649546666666666</v>
+      </c>
+      <c r="N21">
+        <v>2.594864</v>
+      </c>
+      <c r="O21">
+        <v>0.09308861690042643</v>
+      </c>
+      <c r="P21">
+        <v>0.09308861690042641</v>
+      </c>
+      <c r="Q21">
+        <v>0.5169142078933333</v>
+      </c>
+      <c r="R21">
+        <v>4.65222787104</v>
+      </c>
+      <c r="S21">
+        <v>0.000664010776578835</v>
+      </c>
+      <c r="T21">
+        <v>0.0006640107765788351</v>
       </c>
     </row>
   </sheetData>
